--- a/DATA_goal/Junction_Flooding_261.xlsx
+++ b/DATA_goal/Junction_Flooding_261.xlsx
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41693.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.42</v>
+        <v>0.14</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.85</v>
+        <v>0.19</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.75</v>
+        <v>0.48</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.23</v>
+        <v>0.22</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.69</v>
+        <v>0.17</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.02</v>
+        <v>0.3</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.55</v>
+        <v>0.15</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.04</v>
+        <v>0.1</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>3.08</v>
+        <v>0.31</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.6</v>
+        <v>0.16</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.48</v>
+        <v>0.15</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.75</v>
+        <v>0.08</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>16.72</v>
+        <v>1.67</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>6.21</v>
+        <v>0.62</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.51</v>
+        <v>0.15</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.42</v>
+        <v>0.14</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.44</v>
+        <v>0.24</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.92</v>
+        <v>0.19</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>2.61</v>
+        <v>0.26</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>2.14</v>
+        <v>0.21</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.52</v>
+        <v>0.25</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.8</v>
+        <v>0.18</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.51</v>
+        <v>0.15</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.06</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41693.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.19</v>
+        <v>0.12</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.7</v>
+        <v>0.27</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.6</v>
+        <v>0.16</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.25</v>
+        <v>0.32</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.11</v>
+        <v>0.11</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.7</v>
+        <v>0.17</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.16</v>
+        <v>0.12</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.23</v>
+        <v>0.12</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.65</v>
+        <v>0.06</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>7.16</v>
+        <v>0.72</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.56</v>
+        <v>0.36</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.95</v>
+        <v>0.1</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.97</v>
+        <v>0.2</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.33</v>
+        <v>0.13</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.17</v>
+        <v>0.12</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.12</v>
+        <v>0.11</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.53</v>
+        <v>0.25</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41693.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.97</v>
+        <v>0.5</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.09</v>
+        <v>0.41</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>11.29</v>
+        <v>1.13</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>8.93</v>
+        <v>0.89</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>4.09</v>
+        <v>0.41</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>12.25</v>
+        <v>1.23</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>6.03</v>
+        <v>0.6</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.79</v>
+        <v>0.28</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.67</v>
+        <v>0.47</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.22</v>
+        <v>0.42</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.85</v>
+        <v>0.49</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.3</v>
+        <v>0.13</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.85</v>
+        <v>0.39</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>5.65</v>
+        <v>0.57</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.27</v>
+        <v>0.33</v>
       </c>
       <c r="R4" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AA4" s="4" t="n">
         <v>0.37</v>
       </c>
-      <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>54.17</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>3.66</v>
-      </c>
       <c r="AB4" s="4" t="n">
-        <v>3.12</v>
+        <v>0.31</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.75</v>
+        <v>0.48</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>10.54</v>
+        <v>1.05</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.03</v>
+        <v>0.2</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.45</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41693.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>21.36</v>
+        <v>2.14</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>16.32</v>
+        <v>1.63</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>46.82</v>
+        <v>4.68</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>38.43</v>
+        <v>3.84</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>16.94</v>
+        <v>1.69</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>60.25</v>
+        <v>6.03</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>25.88</v>
+        <v>2.59</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>11.71</v>
+        <v>1.17</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>17.82</v>
+        <v>1.78</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>18.54</v>
+        <v>1.85</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>19.94</v>
+        <v>1.99</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.41</v>
+        <v>0.54</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>16.69</v>
+        <v>1.67</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>24.03</v>
+        <v>2.4</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>13.89</v>
+        <v>1.39</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.05</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>248.86</v>
+        <v>24.89</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>47.36</v>
+        <v>4.74</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>15.4</v>
+        <v>1.54</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>31.49</v>
+        <v>3.15</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>16.82</v>
+        <v>1.68</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.57</v>
+        <v>0.26</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>30.56</v>
+        <v>3.06</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>14</v>
+        <v>1.4</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>12.21</v>
+        <v>1.22</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>14.34</v>
+        <v>1.43</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>19.75</v>
+        <v>1.97</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>54.49</v>
+        <v>5.45</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.779999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>19.26</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41693.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>21.87</v>
+        <v>2.19</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>16.65</v>
+        <v>1.67</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.65</v>
+        <v>0.06</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>47.87</v>
+        <v>4.79</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>39.36</v>
+        <v>3.94</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>17.32</v>
+        <v>1.73</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>67.38</v>
+        <v>6.74</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>26.5</v>
+        <v>2.65</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>11.99</v>
+        <v>1.2</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>18.15</v>
+        <v>1.81</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>19</v>
+        <v>1.9</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>20.39</v>
+        <v>2.04</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>5.53</v>
+        <v>0.55</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>17.09</v>
+        <v>1.71</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>24.61</v>
+        <v>2.46</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>14.22</v>
+        <v>1.42</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>254.64</v>
+        <v>25.46</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>48.45</v>
+        <v>4.85</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>15.77</v>
+        <v>1.58</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>32.33</v>
+        <v>3.23</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>17.19</v>
+        <v>1.72</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>2.54</v>
+        <v>0.25</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>33.03</v>
+        <v>3.3</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>14.26</v>
+        <v>1.43</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>12.44</v>
+        <v>1.24</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>14.63</v>
+        <v>1.46</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>20.19</v>
+        <v>2.02</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>61.1</v>
+        <v>6.11</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>8.99</v>
+        <v>0.9</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>19.73</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41693.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>1.33</v>
+        <v>0.13</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>1.19</v>
+        <v>0.12</v>
       </c>
       <c r="D7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="R7" s="4" t="n">
         <v>0.02</v>
       </c>
-      <c r="E7" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>13.22</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="N7" s="4" t="n">
+      <c r="S7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="U7" s="4" t="n">
         <v>0.4</v>
       </c>
-      <c r="O7" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>4.01</v>
-      </c>
       <c r="V7" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>2.53</v>
+        <v>0.25</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>1.36</v>
+        <v>0.14</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>5.87</v>
+        <v>0.59</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>1.04</v>
+        <v>0.1</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>1.32</v>
+        <v>0.13</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>12.55</v>
+        <v>1.25</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41693.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>13.55</v>
+        <v>1.35</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>10.34</v>
+        <v>1.03</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>29.67</v>
+        <v>2.97</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>24.39</v>
+        <v>2.44</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>10.74</v>
+        <v>1.07</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>38.28</v>
+        <v>3.83</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>16.42</v>
+        <v>1.64</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>7.4</v>
+        <v>0.74</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>11.28</v>
+        <v>1.13</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>11.76</v>
+        <v>1.18</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>12.65</v>
+        <v>1.26</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>3.43</v>
+        <v>0.34</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>10.59</v>
+        <v>1.06</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>15.22</v>
+        <v>1.52</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>8.82</v>
+        <v>0.88</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>155.06</v>
+        <v>15.51</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>29.88</v>
+        <v>2.99</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>9.77</v>
+        <v>0.98</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>19.87</v>
+        <v>1.99</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>10.66</v>
+        <v>1.07</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.6</v>
+        <v>0.16</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>18.92</v>
+        <v>1.89</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>8.869999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>7.71</v>
+        <v>0.77</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>9.07</v>
+        <v>0.91</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>12.52</v>
+        <v>1.25</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>34.17</v>
+        <v>3.42</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>5.56</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>12.22</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41693.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>9.529999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>7.3</v>
+        <v>0.73</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>20.89</v>
+        <v>2.09</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>17.16</v>
+        <v>1.72</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>7.56</v>
+        <v>0.76</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>30.7</v>
+        <v>3.07</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>11.55</v>
+        <v>1.15</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>5.24</v>
+        <v>0.52</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>7.97</v>
+        <v>0.8</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>8.25</v>
+        <v>0.82</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>8.92</v>
+        <v>0.89</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>2.42</v>
+        <v>0.24</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>7.44</v>
+        <v>0.74</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>10.76</v>
+        <v>1.08</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>6.21</v>
+        <v>0.62</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>107.04</v>
+        <v>10.7</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>21.26</v>
+        <v>2.13</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>6.86</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>14.09</v>
+        <v>1.41</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>7.54</v>
+        <v>0.75</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.16</v>
+        <v>0.12</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>14.92</v>
+        <v>1.49</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>6.27</v>
+        <v>0.63</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>5.45</v>
+        <v>0.54</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>6.4</v>
+        <v>0.64</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>8.82</v>
+        <v>0.88</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>27.87</v>
+        <v>2.79</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>3.9</v>
+        <v>0.39</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>8.59</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41693.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>6.08</v>
+        <v>0.61</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>4.69</v>
+        <v>0.47</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>13.37</v>
+        <v>1.34</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>10.95</v>
+        <v>1.1</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>4.84</v>
+        <v>0.48</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>20.86</v>
+        <v>2.09</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>7.37</v>
+        <v>0.74</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>3.37</v>
+        <v>0.34</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>5.14</v>
+        <v>0.51</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>5.24</v>
+        <v>0.52</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>5.72</v>
+        <v>0.57</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>1.55</v>
+        <v>0.15</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>4.74</v>
+        <v>0.47</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>6.9</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>3.97</v>
+        <v>0.4</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>65.84999999999999</v>
+        <v>6.59</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>13.7</v>
+        <v>1.37</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>4.37</v>
+        <v>0.44</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>9.01</v>
+        <v>0.9</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>4.85</v>
+        <v>0.48</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>9.99</v>
+        <v>1</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>4.05</v>
+        <v>0.41</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>3.51</v>
+        <v>0.35</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>4.12</v>
+        <v>0.41</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>5.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>18.95</v>
+        <v>1.89</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>2.48</v>
+        <v>0.25</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>5.48</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_261.xlsx
+++ b/DATA_goal/Junction_Flooding_261.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,14 +443,14 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
@@ -461,7 +461,7 @@
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41693.34027777778</v>
+        <v>44942.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.14</v>
+        <v>0.88</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.19</v>
+        <v>0.62</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.48</v>
+        <v>1.96</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.22</v>
+        <v>1.42</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.17</v>
+        <v>0.59</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.3</v>
+        <v>1.93</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.1</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.46</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.31</v>
+        <v>0.57</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.11</v>
+        <v>0.78</v>
       </c>
       <c r="M2" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="R2" s="4" t="n">
         <v>0.16</v>
       </c>
-      <c r="N2" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="R2" s="4" t="n">
+      <c r="S2" s="4" t="n">
         <v>0.08</v>
       </c>
-      <c r="S2" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="T2" s="4" t="n">
-        <v>1.67</v>
+        <v>10.13</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.62</v>
+        <v>1.96</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.66</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.22</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.14</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.24</v>
+        <v>0.08</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.19</v>
+        <v>1.15</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.26</v>
+        <v>0.58</v>
       </c>
       <c r="AB2" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AE2" s="4" t="n">
         <v>0.21</v>
       </c>
-      <c r="AC2" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="AF2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.69</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.33</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.11</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41693.34722222222</v>
+        <v>44942.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.09</v>
+        <v>1.04</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.12</v>
+        <v>0.76</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.3</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.8</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.76</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.32</v>
+        <v>3.01</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.27</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.76</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.12</v>
+        <v>0.99</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.14</v>
       </c>
       <c r="Q3" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="S3" s="4" t="n">
         <v>0.06</v>
       </c>
-      <c r="R3" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="T3" s="4" t="n">
-        <v>0.72</v>
+        <v>11.86</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.36</v>
+        <v>2.31</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.76</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.51</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.11</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Y3" s="4" t="n">
         <v>0.1</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.2</v>
+        <v>1.6</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.13</v>
+        <v>0.67</v>
       </c>
       <c r="AB3" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.77</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.41</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41693.35416666666</v>
+        <v>44942.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.41</v>
+        <v>0.99</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.13</v>
+        <v>2.93</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.89</v>
+        <v>2.35</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.41</v>
+        <v>1</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.23</v>
+        <v>4</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.6</v>
+        <v>1.62</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.28</v>
+        <v>0.73</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.47</v>
+        <v>1.02</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.42</v>
+        <v>1.17</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.49</v>
+        <v>1.26</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.13</v>
+        <v>0.36</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.39</v>
+        <v>1.05</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.57</v>
+        <v>1.48</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.33</v>
+        <v>0.91</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>5.42</v>
+        <v>15.29</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.17</v>
+        <v>2.94</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.36</v>
+        <v>0.97</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.71</v>
+        <v>1.95</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.41</v>
+        <v>1.03</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.65</v>
+        <v>2.03</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.37</v>
+        <v>0.86</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.31</v>
+        <v>0.77</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.36</v>
+        <v>0.9</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.48</v>
+        <v>1.24</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.05</v>
+        <v>3.65</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.2</v>
+        <v>0.54</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.44</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41693.36111111111</v>
+        <v>44942.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.14</v>
+        <v>1.72</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.63</v>
+        <v>1.28</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.68</v>
+        <v>3.76</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.84</v>
+        <v>3.06</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.69</v>
+        <v>1.32</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.03</v>
+        <v>5.2</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.59</v>
+        <v>2.09</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.17</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.78</v>
+        <v>1.35</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.85</v>
+        <v>1.51</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.99</v>
+        <v>1.61</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.45</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.67</v>
+        <v>1.35</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.4</v>
+        <v>1.91</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.39</v>
+        <v>1.15</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="S5" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>19.87</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.05</v>
       </c>
-      <c r="T5" s="4" t="n">
-        <v>24.89</v>
-      </c>
-      <c r="U5" s="4" t="n">
+      <c r="AF5" s="4" t="n">
         <v>4.74</v>
       </c>
-      <c r="V5" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>5.45</v>
-      </c>
       <c r="AG5" s="4" t="n">
-        <v>0.88</v>
+        <v>0.7</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.93</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41693.36805555555</v>
+        <v>44942.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>2.19</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.67</v>
+        <v>6.36</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.7</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>4.79</v>
+        <v>18.81</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>3.94</v>
+        <v>15.15</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.73</v>
+        <v>6.46</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>6.74</v>
+        <v>29.54</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.65</v>
+        <v>10.41</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>1.2</v>
+        <v>4.77</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.81</v>
+        <v>6.59</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.9</v>
+        <v>7.54</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>2.04</v>
+        <v>8.09</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.55</v>
+        <v>2.31</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.71</v>
+        <v>6.77</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>2.46</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1.42</v>
+        <v>5.85</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.33</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.38</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>25.46</v>
+        <v>95.7</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>4.85</v>
+        <v>19.05</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.58</v>
+        <v>6.25</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>3.23</v>
+        <v>12.67</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.72</v>
+        <v>6.65</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.25</v>
+        <v>0.88</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>3.3</v>
+        <v>14.43</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.43</v>
+        <v>5.52</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>1.24</v>
+        <v>4.95</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.46</v>
+        <v>5.8</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>2.02</v>
+        <v>7.96</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.01</v>
+        <v>0.39</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>6.11</v>
+        <v>27.13</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.9</v>
+        <v>3.44</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.97</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41693.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41693.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>15.51</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.22</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41693.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41693.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41693.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>10.31</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>22.57</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>18.57</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>8.17</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>30.49</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>8.56</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>116.19</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>22.78</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>15.17</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>14.99</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>6.89</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>27.42</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>7.81</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_261.xlsx
+++ b/DATA_goal/Junction_Flooding_261.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44942.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.88</v>
+        <v>8.82</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.24</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.79</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.96</v>
+        <v>19.6</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.42</v>
+        <v>14.2</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.89</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.93</v>
+        <v>19.28</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.1</v>
+        <v>10.96</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.46</v>
+        <v>4.56</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.7</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.76</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.88</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.71</v>
+        <v>7.14</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.41</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.68</v>
+        <v>6.78</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.56</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.75</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>10.13</v>
+        <v>101.32</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.96</v>
+        <v>19.6</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.59</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.22</v>
+        <v>12.19</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.91</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.15</v>
+        <v>11.55</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.82</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.51</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.61</v>
+        <v>6.11</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.57</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.09</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.69</v>
+        <v>16.88</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.33</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.24</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44942.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>22.98</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>17.96</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>12.71</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>9.16</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>118.56</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>23.11</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>15.07</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="Y3" s="4" t="n">
         <v>1.04</v>
       </c>
-      <c r="C3" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.1</v>
-      </c>
       <c r="Z3" s="4" t="n">
-        <v>1.6</v>
+        <v>16.02</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.74</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.15</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.71</v>
+        <v>7.13</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.98</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.77</v>
+        <v>27.65</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.09</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.539999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44942.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.33</v>
+        <v>13.29</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.99</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.15</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.93</v>
+        <v>29.26</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.35</v>
+        <v>23.51</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1</v>
+        <v>10.04</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4</v>
+        <v>40.02</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.62</v>
+        <v>16.21</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.73</v>
+        <v>7.32</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.02</v>
+        <v>10.24</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.17</v>
+        <v>11.71</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.26</v>
+        <v>12.57</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.36</v>
+        <v>3.59</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.05</v>
+        <v>10.53</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.48</v>
+        <v>14.77</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.55</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>15.29</v>
+        <v>152.9</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.94</v>
+        <v>29.42</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.97</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.95</v>
+        <v>19.53</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.03</v>
+        <v>10.34</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.36</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.03</v>
+        <v>20.32</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.86</v>
+        <v>8.58</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.77</v>
+        <v>7.7</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.9</v>
+        <v>9</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.24</v>
+        <v>12.39</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.65</v>
+        <v>36.51</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.54</v>
+        <v>5.35</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44942.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.72</v>
+        <v>17.17</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.83</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.09</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.76</v>
+        <v>37.63</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.06</v>
+        <v>30.6</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.32</v>
+        <v>13.18</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.2</v>
+        <v>52.04</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.09</v>
+        <v>20.88</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.35</v>
+        <v>13.52</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.51</v>
+        <v>15.08</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.61</v>
+        <v>16.09</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.45</v>
+        <v>4.51</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.35</v>
+        <v>13.53</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.91</v>
+        <v>19.14</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.15</v>
+        <v>11.52</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>19.87</v>
+        <v>198.69</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.78</v>
+        <v>37.84</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.25</v>
+        <v>12.49</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.53</v>
+        <v>25.33</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.33</v>
+        <v>13.35</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.76</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.6</v>
+        <v>25.98</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.1</v>
+        <v>11.03</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.98</v>
+        <v>9.81</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.15</v>
+        <v>11.51</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.59</v>
+        <v>15.9</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.74</v>
+        <v>47.36</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.7</v>
+        <v>6.98</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.56</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_261.xlsx
+++ b/DATA_goal/Junction_Flooding_261.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44942.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>8.82</v>
+        <v>8.821999999999999</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.24</v>
+        <v>6.243</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.79</v>
+        <v>2.794</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>19.6</v>
+        <v>19.605</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>14.2</v>
+        <v>14.205</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.89</v>
+        <v>5.893</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>19.28</v>
+        <v>19.279</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>10.96</v>
+        <v>10.957</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.56</v>
+        <v>4.563</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.7</v>
+        <v>5.697</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.76</v>
+        <v>7.759</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.68</v>
+        <v>8.683999999999999</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.88</v>
+        <v>2.881</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.14</v>
+        <v>7.143</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>9.41</v>
+        <v>9.409000000000001</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>6.78</v>
+        <v>6.779</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.56</v>
+        <v>1.556</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.75</v>
+        <v>0.752</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>101.32</v>
+        <v>101.319</v>
       </c>
       <c r="U2" s="4" t="n">
         <v>19.6</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>6.59</v>
+        <v>6.594</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>12.19</v>
+        <v>12.192</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.91</v>
+        <v>6.907</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.8</v>
+        <v>0.798</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>11.55</v>
+        <v>11.548</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>5.82</v>
+        <v>5.824</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.51</v>
+        <v>5.505</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.11</v>
+        <v>6.107</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.57</v>
+        <v>8.566000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.09</v>
+        <v>2.095</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>16.88</v>
+        <v>16.882</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.33</v>
+        <v>3.332</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>8.24</v>
+        <v>8.242000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -762,55 +762,55 @@
         <v>10.36</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.62</v>
+        <v>7.616</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.44</v>
+        <v>1.435</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>22.98</v>
+        <v>22.979</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>17.96</v>
+        <v>17.959</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.55</v>
+        <v>7.554</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>30.13</v>
+        <v>30.131</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>12.71</v>
+        <v>12.714</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.67</v>
+        <v>5.672</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.62</v>
+        <v>7.618</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>9.16</v>
+        <v>9.164</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>9.949999999999999</v>
+        <v>9.946</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.97</v>
+        <v>2.971</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>8.27</v>
+        <v>8.271000000000001</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>11.43</v>
+        <v>11.431</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>7.41</v>
+        <v>7.408</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.76</v>
+        <v>0.762</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.59</v>
+        <v>0.594</v>
       </c>
       <c r="T3" s="4" t="n">
         <v>118.56</v>
@@ -819,43 +819,43 @@
         <v>23.11</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.63</v>
+        <v>7.635</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>15.07</v>
+        <v>15.074</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>8.07</v>
+        <v>8.073</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.04</v>
+        <v>1.037</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>16.02</v>
+        <v>16.025</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.74</v>
+        <v>6.744</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.15</v>
+        <v>6.153</v>
       </c>
       <c r="AC3" s="4" t="n">
         <v>7.13</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>9.781000000000001</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.97</v>
+        <v>0.973</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>27.65</v>
+        <v>27.652</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.09</v>
+        <v>4.094</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>9.545</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44942.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>13.29</v>
+        <v>13.293</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>9.887</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.15</v>
+        <v>1.147</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>29.26</v>
+        <v>29.265</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>23.51</v>
+        <v>23.505</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.04</v>
+        <v>10.039</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>40.02</v>
+        <v>40.022</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>16.21</v>
+        <v>16.214</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.32</v>
+        <v>7.321</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>10.24</v>
+        <v>10.245</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>11.71</v>
+        <v>11.713</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>12.57</v>
+        <v>12.568</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.59</v>
+        <v>3.594</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10.53</v>
+        <v>10.527</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>14.77</v>
+        <v>14.773</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9.119999999999999</v>
+        <v>9.115</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.55</v>
+        <v>0.554</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.6</v>
+        <v>0.595</v>
       </c>
       <c r="T4" s="4" t="n">
         <v>152.9</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>29.42</v>
+        <v>29.419</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>9.717000000000001</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>19.53</v>
+        <v>19.528</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>10.34</v>
+        <v>10.338</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.36</v>
+        <v>1.356</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>20.32</v>
+        <v>20.322</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>8.58</v>
+        <v>8.583</v>
       </c>
       <c r="AB4" s="4" t="n">
         <v>7.7</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9</v>
+        <v>9.004</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>12.39</v>
+        <v>12.391</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.64</v>
+        <v>0.644</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>36.51</v>
+        <v>36.511</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.35</v>
+        <v>5.355</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>12.15</v>
+        <v>12.148</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>15.62</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44942.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>18.81</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>15.15</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>29.54</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>10.41</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>95.7</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>19.05</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>12.67</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>14.43</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.52</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.96</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>27.13</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>7.81</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_261.xlsx
+++ b/DATA_goal/Junction_Flooding_261.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +444,7 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
@@ -458,19 +458,19 @@
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -967,103 +967,207 @@
         <v>44942.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>17.17</v>
+        <v>17.167</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>12.83</v>
+        <v>12.828</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.09</v>
+        <v>1.094</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>37.63</v>
+        <v>37.627</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>30.6</v>
+        <v>30.595</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.18</v>
+        <v>13.184</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>52.04</v>
+        <v>52.037</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>20.88</v>
+        <v>20.875</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>9.446999999999999</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>13.52</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>15.08</v>
+        <v>15.081</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>16.09</v>
+        <v>16.092</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.51</v>
+        <v>4.509</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.53</v>
+        <v>13.535</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>19.14</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.52</v>
+        <v>11.516</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.47</v>
+        <v>0.474</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.66</v>
+        <v>0.663</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>198.69</v>
+        <v>198.689</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>37.84</v>
+        <v>37.837</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>12.49</v>
+        <v>12.493</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>25.33</v>
+        <v>25.329</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>13.35</v>
+        <v>13.348</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>1.76</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>25.98</v>
+        <v>25.982</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.03</v>
+        <v>11.035</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.81</v>
+        <v>9.815</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>11.51</v>
+        <v>11.513</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>15.9</v>
+        <v>15.902</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.48</v>
+        <v>0.483</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>47.36</v>
+        <v>47.363</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>6.98</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>15.62</v>
+        <v>15.619</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44942.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>18.81</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>29.54</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>10.41</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>19.05</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>12.67</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>14.43</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>27.13</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>7.81</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_261.xlsx
+++ b/DATA_goal/Junction_Flooding_261.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +444,7 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
@@ -458,19 +458,19 @@
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -967,207 +967,103 @@
         <v>44942.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>17.167</v>
+        <v>17.17</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>12.828</v>
+        <v>12.83</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.094</v>
+        <v>1.09</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>37.627</v>
+        <v>37.63</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>30.595</v>
+        <v>30.6</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.184</v>
+        <v>13.18</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>52.037</v>
+        <v>52.04</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>20.875</v>
+        <v>20.88</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.446999999999999</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>13.52</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>15.081</v>
+        <v>15.08</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>16.092</v>
+        <v>16.09</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.509</v>
+        <v>4.51</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.535</v>
+        <v>13.53</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>19.14</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.516</v>
+        <v>11.52</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.474</v>
+        <v>0.47</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.663</v>
+        <v>0.66</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>198.689</v>
+        <v>198.69</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>37.837</v>
+        <v>37.84</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>12.493</v>
+        <v>12.49</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>25.329</v>
+        <v>25.33</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>13.348</v>
+        <v>13.35</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>1.76</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>25.982</v>
+        <v>25.98</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.035</v>
+        <v>11.03</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.815</v>
+        <v>9.81</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>11.513</v>
+        <v>11.51</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>15.902</v>
+        <v>15.9</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.483</v>
+        <v>0.48</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>47.363</v>
+        <v>47.36</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>6.98</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>15.619</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44942.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>18.81</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>15.15</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>29.54</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>10.41</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>95.7</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>19.05</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>12.67</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>14.43</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.52</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.96</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>27.13</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>7.81</v>
+        <v>15.62</v>
       </c>
     </row>
   </sheetData>
